--- a/public/template/perticipient-list.xlsx
+++ b/public/template/perticipient-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -58,13 +66,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,19 +379,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="47.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -389,7 +405,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>